--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3510593.064838233</v>
+        <v>3506580.45482424</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7852820.027840751</v>
+        <v>7852820.02784075</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482832</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>135.7341931089254</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>7.730549048947838</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.486567854439</v>
+        <v>240.7199646803063</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>115.9900868547825</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>90.52240030468828</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>220.3091963090867</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.1690567639037</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>5.36429105178094</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>26.13627195705828</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>26.13627195705896</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>96.02642072444128</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>37.17792077063402</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408066</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>253.6303937659915</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>108.5163679066134</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038643</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86.09789039964257</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>132.7714033631331</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310325</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>76.17049831699812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>36.74735985928049</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>139.1584054594695</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>216.5944428361189</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1274.539111149741</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.539111149741</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D2" t="n">
-        <v>916.2734125429909</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>916.2734125429909</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189675</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213863</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>561.0764108006847</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>392.1402278727778</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>242.0235884604421</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>242.0235884604421</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709433</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.507005672472</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5174547744546</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.7248756309244</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250375</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989295</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989295</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2798542473295</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1810.132844194773</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1810.132844194773</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="U7" t="n">
-        <v>1521.029977320417</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="V7" t="n">
-        <v>1266.34548911453</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="W7" t="n">
-        <v>976.9283190775692</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X7" t="n">
-        <v>976.9283190775692</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.9283190775692</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>746.1160070740684</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.233036999167</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.233036999167</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5023,70 +5023,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5135,13 +5135,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2420.562808876161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2420.562808876161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>989.3306680894888</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>820.3944851615819</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>670.2778457492461</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>522.364752166853</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1170.979132919728</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459586</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180517</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>701.4712640439268</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C34" t="n">
-        <v>532.5350811160199</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D34" t="n">
-        <v>382.4184417036842</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>551.4727111160156</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>404.5827636181052</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1621.319028952675</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W34" t="n">
-        <v>1331.901858915714</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X34" t="n">
-        <v>1103.912308017697</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y34" t="n">
-        <v>883.1197288741665</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.400451171542</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7189,19 +7189,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>734.6461798836018</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,40 +7408,40 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>710.248605371872</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2306.399037661605</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2086.797572684546</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1797.722346028744</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.5276345711973</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2161.135114341634</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1872.059887685832</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1617.375399479945</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.958229442984</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.968678544967</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.176099401437</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>154.8900140445856</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>190.1580536648029</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>108.2431272522972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393024</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24651,19 +24651,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>32.89260457059953</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.09910511159893</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>79.42624789262628</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>119.3662399606949</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>111.8681131589319</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>41.86788054217504</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.811007491169363</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676264.9921494647</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.604713255</v>
-      </c>
       <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314473</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314473</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767569.1161876684</v>
+        <v>-767569.1161876682</v>
       </c>
       <c r="C6" t="n">
-        <v>561175.6295399244</v>
+        <v>561175.629539924</v>
       </c>
       <c r="D6" t="n">
-        <v>561175.6295399242</v>
+        <v>561175.629539924</v>
       </c>
       <c r="E6" t="n">
-        <v>308908.5808301994</v>
+        <v>308561.2015758428</v>
       </c>
       <c r="F6" t="n">
-        <v>634321.0426375545</v>
+        <v>633973.6633831979</v>
       </c>
       <c r="G6" t="n">
-        <v>634321.0426375542</v>
+        <v>633973.6633831975</v>
       </c>
       <c r="H6" t="n">
-        <v>634321.0426375545</v>
+        <v>633973.6633831974</v>
       </c>
       <c r="I6" t="n">
-        <v>634321.042637555</v>
+        <v>633973.6633831975</v>
       </c>
       <c r="J6" t="n">
-        <v>416789.8402402774</v>
+        <v>416442.4609859201</v>
       </c>
       <c r="K6" t="n">
-        <v>634321.0426375549</v>
+        <v>633973.6633831979</v>
       </c>
       <c r="L6" t="n">
-        <v>634321.0426375548</v>
+        <v>633973.6633831979</v>
       </c>
       <c r="M6" t="n">
-        <v>549266.0147020428</v>
+        <v>548918.6354476858</v>
       </c>
       <c r="N6" t="n">
-        <v>634321.0426375547</v>
+        <v>633973.6633831976</v>
       </c>
       <c r="O6" t="n">
-        <v>634321.0426375549</v>
+        <v>633973.663383198</v>
       </c>
       <c r="P6" t="n">
-        <v>634321.0426375545</v>
+        <v>633973.6633831976</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.9183408758547</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>271.1418526327861</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>137.6904989739834</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.24727380904159</v>
+        <v>142.0138769831742</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>73.77893847665936</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>129.0265489714809</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>186.5668494326248</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>109.5832017062313</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440367</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>281.1587072848101</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28377,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>610.0546826043644</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32709,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817577</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>338.130958502898</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>409.0029787211719</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>610.0546826043645</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663299</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244903</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>206.7892464195647</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>266.8689447991536</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>471.5003028244903</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3506580.45482424</v>
+        <v>3508340.985127027</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7852820.02784075</v>
+        <v>7852820.027840751</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.0648965483592</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074482832</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>176.7697821123591</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>240.7199646803063</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>152.5938874041474</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>25.5149916797969</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>90.52240030468828</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>267.611262169502</v>
       </c>
       <c r="F8" t="n">
-        <v>220.3091963090867</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206877</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>26.13627195705828</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>180.4457250758544</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>57.24347904696411</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>70.04554881124426</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>179.2499669408066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701373</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.43007309479012</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>172.1249649038643</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>86.09789039964257</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282045</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.36569740310325</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>135.3135037226527</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4479,34 +4479,34 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4524,10 +4524,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X4" t="n">
         <v>1494.054724415577</v>
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149022</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
-        <v>2588.318918149022</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>725.9304417640992</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>556.9942588361923</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>406.8776194238566</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>406.8776194238566</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>259.9876719259462</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>92.28483530066515</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1554.341438688313</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1554.341438688313</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1554.341438688313</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W7" t="n">
-        <v>1554.341438688313</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X7" t="n">
-        <v>1326.351887790296</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y7" t="n">
-        <v>1105.559308646766</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219475</v>
+        <v>1528.069587875904</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279063</v>
+        <v>1159.107070935492</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.904259672313</v>
+        <v>800.841372328742</v>
       </c>
       <c r="E8" t="n">
-        <v>746.1160070740684</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4840,16 +4840,16 @@
         <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259408</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283597</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.77602655188</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611468</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192622</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694712</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852261</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398599</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474789</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466579</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123008</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852894</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591814</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866616002</v>
       </c>
     </row>
     <row r="12">
@@ -5105,34 +5105,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273923</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803942</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516152</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793927</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>552.3777707160739</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>383.441587788167</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>383.441587788167</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797753</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>734.0262355463136</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,7 +6062,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273906</v>
@@ -6071,7 +6071,7 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>802.9288273958744</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>633.9926444679675</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>335.9629114732386</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>335.9629114732386</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,13 +6639,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>984.5772922261141</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1018.438627038651</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>849.5024441107445</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>699.3858046984087</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>551.4727111160156</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>404.5827636181052</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1938.286391947399</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1648.869221910438</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1420.879671012421</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1200.087091868891</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7423,40 +7423,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7642,19 +7642,19 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192474</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7663,34 +7663,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>916.294644713842</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>916.294644713842</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.294644713842</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.397437740962089e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-6.62179331752115e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>38.13892827624036</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>123.7828069546805</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>147.359901516044</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>66.09406519747873</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>79.42624789262628</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>125.5054897610396</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>13.3019692955597</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676264.9921494647</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676264.9921494647</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676264.9921494647</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244625</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244621</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073564</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551215</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314469</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.0322517933</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179343</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179339</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26453,10 +26453,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179342</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179342</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26505,13 +26505,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767569.1161876682</v>
+        <v>-767569.1161876689</v>
       </c>
       <c r="C6" t="n">
-        <v>561175.629539924</v>
+        <v>561175.6295399249</v>
       </c>
       <c r="D6" t="n">
-        <v>561175.629539924</v>
+        <v>561175.6295399244</v>
       </c>
       <c r="E6" t="n">
-        <v>308561.2015758428</v>
+        <v>308873.8429047629</v>
       </c>
       <c r="F6" t="n">
-        <v>633973.6633831979</v>
+        <v>634286.30471212</v>
       </c>
       <c r="G6" t="n">
-        <v>633973.6633831975</v>
+        <v>634286.3047121192</v>
       </c>
       <c r="H6" t="n">
-        <v>633973.6633831974</v>
+        <v>634286.304712119</v>
       </c>
       <c r="I6" t="n">
-        <v>633973.6633831975</v>
+        <v>634286.3047121195</v>
       </c>
       <c r="J6" t="n">
-        <v>416442.4609859201</v>
+        <v>416755.1023148414</v>
       </c>
       <c r="K6" t="n">
-        <v>633973.6633831979</v>
+        <v>634286.3047121192</v>
       </c>
       <c r="L6" t="n">
-        <v>633973.6633831979</v>
+        <v>634286.3047121195</v>
       </c>
       <c r="M6" t="n">
-        <v>548918.6354476858</v>
+        <v>549231.2767766071</v>
       </c>
       <c r="N6" t="n">
-        <v>633973.6633831976</v>
+        <v>634286.3047121192</v>
       </c>
       <c r="O6" t="n">
-        <v>633973.663383198</v>
+        <v>634286.3047121192</v>
       </c>
       <c r="P6" t="n">
-        <v>633973.6633831976</v>
+        <v>634286.3047121192</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483766</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697357</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.306832697357</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697357</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.6689451151214</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758547</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>48.93987327667804</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.0138769831742</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>175.1583710659876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>119.2400232345239</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0265489714809</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>114.3191079027598</v>
       </c>
       <c r="F8" t="n">
-        <v>186.5668494326248</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>73.08464294440367</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,13 +28089,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-2.82325963875083e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.487140834762211e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.242577364551453e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29511,10 +29511,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-2.411577144875051e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.846391241962518e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.789547823101709e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348438</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135345</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175683</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159433</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460035</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236514</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669227</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078749</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473078</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862127</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.959892919253</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437249</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742443</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869281</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,31 +33265,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113948</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>353.130074847795</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175684</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067219</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317426</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902955</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193525</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243168</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924732</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902407</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600775</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674336</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641945</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359196</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992804</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010454</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899078</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280614</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902957</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315972</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
